--- a/medicine/Enfance/Esther_Kinsky/Esther_Kinsky.xlsx
+++ b/medicine/Enfance/Esther_Kinsky/Esther_Kinsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Esther Kinsky, née le 12 septembre 1956 à Engelskirchen, est une traductrice et écrivaine allemande.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Banatsko, 2010
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Banatsko, 2010
 Sommerfrische, 2010
 Am Fluss, 2014
 - Prix Franz-Hessel 2014
@@ -549,18 +568,154 @@
 - prix de la Foire du livre de Leipzig 2018
 - traduit en français sous le titre Le Bosquet par Olivier Le Lay, Paris, Éditions Grasset, coll. « En lettres d'ancre », 2020, 384 p.  (ISBN 978-2-24-681836-6)
 Rombo, 2022
-- traduit en français sous le titre Rombo par Olivier Le Lay, Paris, Éditions Christian Bourgois, 2023, 452 p.  (ISBN 978-2-267-05103-2)
-Livres pour enfant
-Wer hat hier Angst vor Hexen?, 1989
+- traduit en français sous le titre Rombo par Olivier Le Lay, Paris, Éditions Christian Bourgois, 2023, 452 p.  (ISBN 978-2-267-05103-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Esther_Kinsky</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Kinsky</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour enfant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Wer hat hier Angst vor Hexen?, 1989
 Eines Abends im Winter, ill de Sarah Fricke, 2011
-Der Käptn und die Mimi Kätt, ill. de Gerda Raidt, 2012
-Poésie
-Die ungerührte Schrift des Jahrs, 2010
-Aufbruch nach Patagonien, 2012
-Essai
-Fremdsprechen. Gedanken zum Übersetzen, 2013
-Beaux livres
-Mali, 1987
+Der Käptn und die Mimi Kätt, ill. de Gerda Raidt, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Esther_Kinsky</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Kinsky</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Die ungerührte Schrift des Jahrs, 2010
+Aufbruch nach Patagonien, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Esther_Kinsky</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Kinsky</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fremdsprechen. Gedanken zum Übersetzen, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Esther_Kinsky</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Kinsky</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Beaux livres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mali, 1987
 Unser fremdes Land: Tansanisches Reisebilderbuch, 1987
 Naturschutzgebiet, 2013</t>
         </is>
